--- a/medicine/Sexualité et sexologie/Téléphone_rose/Téléphone_rose.xlsx
+++ b/medicine/Sexualité et sexologie/Téléphone_rose/Téléphone_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un service de téléphone érotique, ou familièrement de téléphone rose (en raison de la connotation sexuelle de la couleur rose), est une plate-forme téléphonique offrant aux appelants la possibilité d'avoir des conversations à caractère érotique, éventuellement pour se masturber, souvent par le biais d'un serveur vocal interactif. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Coût</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart de ces services sont payants. La transaction peut s'effectuer de deux manières :
 par le biais d'un numéro surtaxé, dont le tarif est prélevé directement sur la facture téléphonique du client par l'opérateur, qui partage ensuite ces revenus avec l'éditeur du service en lui en reversant une partie ;
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Types de contacts</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les clients peuvent être mis en relation avec :
 d'autres clients, auquel cas l'objectif peut également être un contact à l'extérieur du service ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,11 +603,13 @@
           <t>Conditions de travail</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les employés peuvent soit travailler depuis leur domicile, sur leur ligne personnelle, soit dans un centre d'appel.
 Tout comme d'autres services téléphoniques à bas coûts salariaux (voyance par téléphone), le téléphone rose n'échappe pas à l'externalisation des appels. C'est-à-dire qu'une hôtesse française peut également prendre des appels passés par des clients belges ou suisses romands.
-Les employés assument parfois en parallèle la fonction de surveiller les dialogues entre clients, afin de s'assurer de leur légalité[1] et ils sont considérés comme des travailleurs du sexe. Sauf dans le cas de services à caractère homosexuel, il s'agit généralement de femmes : les clients étant essentiellement des hommes.
+Les employés assument parfois en parallèle la fonction de surveiller les dialogues entre clients, afin de s'assurer de leur légalité et ils sont considérés comme des travailleurs du sexe. Sauf dans le cas de services à caractère homosexuel, il s'agit généralement de femmes : les clients étant essentiellement des hommes.
 </t>
         </is>
       </c>
@@ -602,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,7 +638,9 @@
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La promotion de ces services se fait généralement par le biais de petites annonces ou d'encarts publicitaires, dans la presse masculine ou pornographique, à la télévision ou la radio tard dans la soirée et la nuit, sur Internet, ou encore par affichage.
 </t>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -653,8 +673,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-En France, les entreprises éditrices de services télématiques s'engagent à suivre les Recommandations déontologiques[2] émises par l'AFMM (Association Française du Multimédia Mobile).
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les entreprises éditrices de services télématiques s'engagent à suivre les Recommandations déontologiques émises par l'AFMM (Association Française du Multimédia Mobile).
 </t>
         </is>
       </c>
@@ -665,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -683,7 +708,9 @@
           <t>Le téléphone rose dans la culture populaire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>En 1980, la chanteuse française Sheila, dans sa chanson L'amour au téléphone, adaptation par son producteur Claude Carrère et l'auteur Jean Schmitt de la chanson Love on the phone de Suzanne Fellini, joue le rôle humoristique d'une femme choquée par les personnes qui selon elle utilisent le téléphone rose, tout en avouant pourtant s'y adonner elle-même.
 Sex over the phone, chanson des Village People (1985).
@@ -693,7 +720,7 @@
 En 1996, dans le film américain Girl 6 de Spike Lee, Theresa Randle incarne Judy alias Girl 6, une hôtesse de téléphone rose.
 En 1997, dans le film japonais Eat the Schoolgirl, un jeune yakusa noue une relation avec une hôtesse de téléphone rose.
 L'agent spécial Larry B. Max de la série BD IR$ (1999), noue une relation ambigu avec une Gloria Paradise hôtesse de téléphone rose.
-En 2001, dans l'épisode 13 de la saison 7 de la série télévisée américaine Friends, le personnage de Phoebe avoue avoir travaillé pour un service de téléphone rose[3].
+En 2001, dans l'épisode 13 de la saison 7 de la série télévisée américaine Friends, le personnage de Phoebe avoue avoir travaillé pour un service de téléphone rose.
 En 2002, dans le film américain Spun de Jonas Akerlung, Spider Mike appelle un service de téléphone rose dont l'hôtesse est Debbie Harry.
 En 2002, dans son sketch Le Téléphone rose, l'humoriste français Jean-François Dérec interprète le rôle de Gérard Bouchard, client d'un serveur vocal de téléphone rose.
 En 2005, dans l'épisode 20 de la saison 6 de la série télévisée américaine Malcolm, Hal découvre une facture pour un téléphone rose, les appelle pour se plaindre mais raccroche mal le combiné ce qui conduit à un appel à huit cents dollars.
@@ -702,7 +729,7 @@
 En 2010, dans le film Valentine's Day de Garry Marshall, le personnage de Liz (Anne Hathaway) arrondit ses fins de mois comme hôtesse de téléphone rose sado-masochiste.
 En 2012, dans le film américain American Sexy Phone de Jamie Travis, deux colocataires décident de monter une entreprise de téléphone rose.
 En 2021, la pièce de théâtre La Ligne Rose (avec Odile Blanchet, Bérénice Boccara et Sana Puis) raconte la création d'une ligne de téléphone rose par trois opératrices de téléphone à Paris en 1928. La pièce est créée au Lucernaire en septembre 2021.
-En 2022, la série américaine Dirty Lines diffusée sur Netflix[4] retrace le parcours de 2 frères à l'origine de la société de téléphone rose hollandaise Teleholding. On y voit Marly, une étudiante, prendre un travail d'hôtesse en parallèle de ses études.</t>
+En 2022, la série américaine Dirty Lines diffusée sur Netflix retrace le parcours de 2 frères à l'origine de la société de téléphone rose hollandaise Teleholding. On y voit Marly, une étudiante, prendre un travail d'hôtesse en parallèle de ses études.</t>
         </is>
       </c>
     </row>
@@ -712,7 +739,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>T%C3%A9l%C3%A9phone_rose</t>
+          <t>Téléphone_rose</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -730,7 +757,9 @@
           <t>Indicatifs téléphoniques</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Ci-après la liste des indicatifs téléphoniques par pays identifiant ce type de services :  
  France : 08 95 (à compter du 1er janvier 2017, l'ensemble des services téléphoniques surtaxés et destinés à un public adulte doivent obligatoirement être proposés sur la tranche de numérotation 08 95 - Décision ARCEP N° 2012-0856)
